--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.020520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Spring.020520.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1109,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1571,12 +1571,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1999,12 +1999,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2297,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3305,12 +3305,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3729,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3859,12 +3859,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4749,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5853,12 +5853,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5895,12 +5895,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6063,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7457,12 +7457,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8091,12 +8091,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8133,12 +8133,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8175,12 +8175,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8343,12 +8343,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8427,12 +8427,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8553,12 +8553,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
